--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasz\IdeaProjects\helper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.dev\1.java\helper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D12F066-0EF6-43D0-BAAE-0DADC90B270A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F341D7B-09AF-49E3-AD1D-B768E04C63B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="2880" windowWidth="25800" windowHeight="9970" xr2:uid="{09830A95-75AC-4434-9B27-12756B30A6D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09830A95-75AC-4434-9B27-12756B30A6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>参数1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,6 +48,26 @@
   </si>
   <si>
     <t>文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inter</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -55,11 +75,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -67,17 +87,31 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -110,11 +144,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1311B07-558A-48C5-AE80-96A027DF3031}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -450,8 +487,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -460,6 +500,9 @@
       </c>
       <c r="C2" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
